--- a/psychopy/demos/builder/readyToPlay/BigFiveInventory/TIPI.xlsx
+++ b/psychopy/demos/builder/readyToPlay/BigFiveInventory/TIPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lpzjwp/Desktop/forms_test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Throwaway\PsychoPy3 Demos\BigFiveInventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD071EA-296A-2B41-9467-58B89715CAD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{991ADF62-0FDA-4DFE-A4C8-E589D19842CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="2640" windowWidth="26920" windowHeight="13840" xr2:uid="{0E4AB572-7FBF-4ACD-96A9-E4FB11A7C5D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,10 +36,320 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={BE2785E5-AA64-450F-BBD9-5BA2710170D4}</author>
+    <author>Work</author>
+    <author>tc={BCE1B61A-F958-4389-BB77-8A24EF26DF92}</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BE2785E5-AA64-450F-BBD9-5BA2710170D4}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">OPTIONAL
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>Can be used to assign each question an "index" which can be referred back to in code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">REQUIRED
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>The text to be displayed. For items consisting of a question and answer, this field will be used for the question.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">REQUIRED
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>What type of item is this?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+If the item is a multiple choice response, what options should be available? These should be a list seperated by commas.
+If the item is free text entry, what text should be displayed before any response?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+If the item is a slider, what ticks should it use? These should be numeric and seperated by commas.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+How should each tick be labeled? This should be a list seperated by commas, of the same length as </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <i/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>ticks</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+Should different bits of the item stack vertically or horizontally?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+What color should the item text be? This can be specified in any color space recognised by PsychoPy: https://www.psychopy.org/general/colours.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+What proportion of the available width should be taken up by the item? Should be a value between 0 and 1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+What color should the response be? This can be specified in any color space recognised by PsychoPy: https://www.psychopy.org/general/colours.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t>OPTIONAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri Light"/>
+            <family val="2"/>
+            <scheme val="major"/>
+          </rPr>
+          <t xml:space="preserve">
+What proportion of the available width should be taken up by the item? Should be a value between 0 and 1.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{BCE1B61A-F958-4389-BB77-8A24EF26DF92}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,17 +363,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>itemText</t>
+  </si>
+  <si>
+    <t>itemColor</t>
+  </si>
+  <si>
+    <t>itemWidth</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>ticks</t>
+  </si>
+  <si>
+    <t>tickLabels</t>
+  </si>
+  <si>
+    <t>responseWidth</t>
+  </si>
+  <si>
+    <t>responseColor</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>Extraversion</t>
+  </si>
+  <si>
+    <t>Agreeableness</t>
+  </si>
+  <si>
+    <t>Conscientiousness</t>
+  </si>
+  <si>
+    <t>Emotional stability</t>
+  </si>
+  <si>
+    <t>Openness to Experiences</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>I see myself as…</t>
+  </si>
+  <si>
+    <t>Extraverted, enthusiastic.</t>
+  </si>
+  <si>
+    <t>Critical, quarrelsome.</t>
+  </si>
   <si>
     <t>Dependable, self-disciplined.</t>
   </si>
   <si>
-    <t>Critical, quarrelsome.</t>
-  </si>
-  <si>
-    <t>Extraverted, enthusiastic.</t>
-  </si>
-  <si>
     <t>Anxious, easily upset.</t>
   </si>
   <si>
@@ -84,65 +452,26 @@
     <t>Conventional, uncreative.</t>
   </si>
   <si>
-    <t>Extraversion</t>
-  </si>
-  <si>
-    <t>Agreeableness</t>
-  </si>
-  <si>
-    <t>Conscientiousness</t>
-  </si>
-  <si>
-    <t>Emotional stability</t>
-  </si>
-  <si>
-    <t>Openness to Experiences</t>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>Strongly disagree,,,Not sure,,,Strongly agree</t>
+  </si>
+  <si>
+    <t>Scoring</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>factor</t>
-  </si>
-  <si>
-    <t>scoring</t>
-  </si>
-  <si>
-    <t>I see myself as…</t>
-  </si>
-  <si>
-    <t>ticks</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7</t>
-  </si>
-  <si>
-    <t>tickLabels</t>
-  </si>
-  <si>
-    <t>Strongly disagree,,,Not sure,,,Strongly agree</t>
-  </si>
-  <si>
-    <t>itemText</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>rating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,18 +479,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2545B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF66666E"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -171,14 +553,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2545B"/>
+      <color rgb="FF66666E"/>
+      <color rgb="FF02A9EA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -192,7 +592,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Jonathan Peirce" id="{E7114487-CDFE-4157-9EB3-0253762C89C7}" userId="b0b5e66a52eeb161" providerId="Windows Live"/>
+  <person displayName="Todd Parsons" id="{BE1761AC-2B70-4FBD-B1B1-A8053E33016E}" userId="S::Todd.Parsons@nottingham.ac.uk::06786309-4997-4d2f-837f-ada7ccdc7c3d" providerId="AD"/>
 </personList>
 </file>
 
@@ -493,7 +893,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C1" dT="2020-06-29T17:13:51.30" personId="{E7114487-CDFE-4157-9EB3-0253762C89C7}" id="{BE2785E5-AA64-450F-BBD9-5BA2710170D4}">
+  <threadedComment ref="A2" dT="2021-01-22T16:11:50.49" personId="{BE1761AC-2B70-4FBD-B1B1-A8053E33016E}" id="{BCE1B61A-F958-4389-BB77-8A24EF26DF92}">
     <text>From the TIPI: 
 Gosling, S. D., Rentfrow, P. J., &amp; Swann, W. B., Jr. (2003). A Very Brief Measure of the Big Five Personality Domains. Journal of Research in Personality, 37, 504-528.</text>
   </threadedComment>
@@ -501,251 +901,291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407F8299-CB5D-4D24-B665-6943BD0F4DC2}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="5" customWidth="1"/>
+    <col min="13" max="16380" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="16381" max="16381" width="0.28515625" style="4" hidden="1" customWidth="1"/>
+    <col min="16382" max="16383" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="0.28515625" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="G2:G1048576" xr:uid="{C1BCF52B-5E35-4766-974C-5003ECE69F1F}">
+      <formula1>"vert, horiz"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" sqref="C2:C1048576" xr:uid="{A947903D-D5FA-490B-856C-2CF38199E34B}">
+      <formula1>"heading, description, rating, slider, free text, choice"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" sqref="K2:K1048576" xr:uid="{906D5986-CBBD-45F9-8BDD-784254E57BFB}">
+      <formula1>0</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>